--- a/PyschopyTask/choiceset/CGT-choice-set.xlsx
+++ b/PyschopyTask/choiceset/CGT-choice-set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10804"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/cgt/choiceset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/cgt/PyschopyTask/choiceset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211248E2-3946-4147-97EB-786D3993F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10596FBC-25EC-E840-B9CA-4712B2164A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26240" yWindow="5320" windowWidth="23500" windowHeight="21600" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="gain only generation" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Rho 1.3-1.5" sheetId="7" r:id="rId8"/>
     <sheet name="Rho 1.5-1.7" sheetId="8" r:id="rId9"/>
     <sheet name="Rho 1.7-2.0" sheetId="9" r:id="rId10"/>
+    <sheet name="ExampleValueFunction" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>spacing of Rhos</t>
   </si>
@@ -336,6 +337,27 @@
   <si>
     <t>safeoption</t>
   </si>
+  <si>
+    <t>Objective values</t>
+  </si>
+  <si>
+    <t>Subjective values</t>
+  </si>
+  <si>
+    <t>min poss</t>
+  </si>
+  <si>
+    <t>max poss</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>curvature (rho):</t>
+  </si>
 </sst>
 </file>
 
@@ -463,15 +485,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -483,6 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,6 +1765,964 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subjective Value or Utility Function</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExampleValueFunction!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subjective values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="127000" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExampleValueFunction!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExampleValueFunction!$C$3:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57434917749851755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3831618672225916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7411011265922482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0813830185046829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4082246852806923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7242968954290983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.031433133020796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3309645523843812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6238983183884779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9110210334824664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.192962712629476</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4702384044015488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7432763938033666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0124379646870167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2780316430915768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5403237118667024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7995461347952899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0559026369569615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3095734448019343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5607190336059054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8094831275223022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0559951284748843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3003721027184696</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5427204206814542</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7831371220394709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0217110608470144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2585238729894588</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4936507988786083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7271613872903213</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9591201009009698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.189586839976279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.4186173974844802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.6462638564168639</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8725749381364594</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.097596309015795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.321370851376619</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.543938903738731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.765338474569583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.985605433061178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE28-C245-B695-B258B3275A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Identity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExampleValueFunction!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExampleValueFunction!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE28-C245-B695-B258B3275A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="345779184"/>
+        <c:axId val="345788864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="345779184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Objective Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345788864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="345788864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subjective Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345779184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1784,6 +2764,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2855,6 +3875,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2924,6 +4460,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7201CB-1FCE-38B9-6CBF-D7A3C4DCA568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3231,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27200891-336F-B345-AC84-3456DD08CA54}">
   <dimension ref="A1:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3264,19 +4841,19 @@
       <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>90</v>
       </c>
       <c r="V1" t="s">
@@ -3284,16 +4861,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>0.05</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0.3</v>
       </c>
       <c r="J2" t="s">
@@ -3308,17 +4885,17 @@
       <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="13">
         <v>6</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="13">
         <f>O2*4-2*R2</f>
         <v>20.026282301039686</v>
       </c>
-      <c r="Q2" s="16">
-        <v>0</v>
-      </c>
-      <c r="R2" s="16">
+      <c r="Q2" s="13">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
         <f>((4*O2)*(0.5^(1/E2)))/(1 + 2*(0.5^(1/E2)))</f>
         <v>1.986858849480158</v>
       </c>
@@ -3342,7 +4919,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E9" si="0">B$2+E2</f>
         <v>0.35</v>
       </c>
@@ -3355,17 +4932,17 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="13">
         <v>9</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <f t="shared" ref="P3:P41" si="1">O3*4-2*R3</f>
         <v>28.212671351908156</v>
       </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
         <f t="shared" ref="R3:R41" si="2">((4*O3)*(0.5^(1/E3)))/(1 + 2*(0.5^(1/E3)))</f>
         <v>3.8936643240459219</v>
       </c>
@@ -3380,16 +4957,16 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0.05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0.39999999999999997</v>
       </c>
@@ -3402,17 +4979,17 @@
       <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="13">
         <v>6</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <f t="shared" si="1"/>
         <v>17.731107000870203</v>
       </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
         <f t="shared" si="2"/>
         <v>3.134446499564898</v>
       </c>
@@ -3433,7 +5010,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
@@ -3446,17 +5023,17 @@
       <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>9</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <f t="shared" si="1"/>
         <v>25.199108102803706</v>
       </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
         <f t="shared" si="2"/>
         <v>5.4004459485981471</v>
       </c>
@@ -3468,7 +5045,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
       </c>
@@ -3481,17 +5058,17 @@
       <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="13">
         <v>6</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q6" s="16">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3506,7 +5083,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.54999999999999993</v>
       </c>
@@ -3519,17 +5096,17 @@
       <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>9</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="13">
         <f t="shared" si="1"/>
         <v>22.971544633834675</v>
       </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
         <f t="shared" si="2"/>
         <v>6.5142276830826624</v>
       </c>
@@ -3547,21 +5124,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="13">
         <v>6</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="13">
         <f t="shared" si="1"/>
         <v>14.724282970456576</v>
       </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
         <f t="shared" si="2"/>
         <v>4.637858514771712</v>
       </c>
@@ -3573,21 +5150,21 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <v>9</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>21.320639175154636</v>
       </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
         <f t="shared" si="2"/>
         <v>7.3396804124226822</v>
       </c>
@@ -3612,17 +5189,17 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <v>6</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
         <v>13.939951313617156</v>
       </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
         <f t="shared" si="2"/>
         <v>5.030024343191422</v>
       </c>
@@ -3656,17 +5233,17 @@
       <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="13">
         <v>9</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>20.531163527505697</v>
       </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
         <f t="shared" si="2"/>
         <v>7.7344182362471514</v>
       </c>
@@ -3692,17 +5269,17 @@
       <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="13">
         <v>6</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>13.454049542268844</v>
       </c>
-      <c r="Q12" s="16">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
         <f t="shared" si="2"/>
         <v>5.2729752288655778</v>
       </c>
@@ -3711,8 +5288,6 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -3720,17 +5295,17 @@
         <f t="shared" si="3"/>
         <v>0.77000000000000013</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="13">
         <v>9</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="13">
         <f t="shared" si="1"/>
         <v>19.856767532095027</v>
       </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16">
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
         <f t="shared" si="2"/>
         <v>8.0716162339524864</v>
       </c>
@@ -3749,17 +5324,17 @@
         <f t="shared" si="3"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="13">
         <v>6</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="13">
         <f t="shared" si="1"/>
         <v>13.037126804710677</v>
       </c>
-      <c r="Q14" s="16">
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
         <f t="shared" si="2"/>
         <v>5.4814365976446613</v>
       </c>
@@ -3782,17 +5357,17 @@
         <v>0.83000000000000018</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="O15" s="16">
+      <c r="O15" s="13">
         <v>9</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="13">
         <f t="shared" si="1"/>
         <v>19.275587355943419</v>
       </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
         <f t="shared" si="2"/>
         <v>8.3622063220282907</v>
       </c>
@@ -3814,17 +5389,17 @@
         <f t="shared" si="3"/>
         <v>0.86000000000000021</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="13">
         <v>6</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="13">
         <f t="shared" si="1"/>
         <v>12.676310043719287</v>
       </c>
-      <c r="Q16" s="16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
         <f t="shared" si="2"/>
         <v>5.6618449781403566</v>
       </c>
@@ -3847,17 +5422,17 @@
         <f t="shared" si="3"/>
         <v>0.89000000000000024</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="13">
         <v>9</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="13">
         <f t="shared" si="1"/>
         <v>18.770557662612646</v>
       </c>
-      <c r="Q17" s="16">
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
         <f t="shared" si="2"/>
         <v>8.6147211686936771</v>
       </c>
@@ -3873,17 +5448,17 @@
         <f t="shared" si="3"/>
         <v>0.92000000000000026</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="13">
         <v>6</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="13">
         <f t="shared" si="1"/>
         <v>12.361532562451618</v>
       </c>
-      <c r="Q18" s="16">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
         <f t="shared" si="2"/>
         <v>5.8192337187741909</v>
       </c>
@@ -3902,17 +5477,17 @@
         <f t="shared" si="3"/>
         <v>0.95000000000000029</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="13">
         <v>9</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="13">
         <f t="shared" si="1"/>
         <v>18.328296465138848</v>
       </c>
-      <c r="Q19" s="16">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
         <f t="shared" si="2"/>
         <v>8.8358517674305759</v>
       </c>
@@ -3928,17 +5503,17 @@
         <f t="shared" si="3"/>
         <v>0.98000000000000032</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="13">
         <v>6</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="13">
         <f t="shared" si="1"/>
         <v>12.084873749663425</v>
       </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
         <f t="shared" si="2"/>
         <v>5.9575631251682877</v>
       </c>
@@ -3954,17 +5529,17 @@
         <f t="shared" si="3"/>
         <v>1.0100000000000002</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="13">
         <v>9</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="13">
         <f t="shared" si="1"/>
         <v>17.938234652074765</v>
       </c>
-      <c r="Q21" s="16">
-        <v>0</v>
-      </c>
-      <c r="R21" s="16">
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
         <f t="shared" si="2"/>
         <v>9.0308826739626173</v>
       </c>
@@ -3980,17 +5555,17 @@
         <f t="shared" si="3"/>
         <v>1.0400000000000003</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="13">
         <v>6</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="13">
         <f t="shared" si="1"/>
         <v>11.840052431505526</v>
       </c>
-      <c r="Q22" s="16">
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
         <f t="shared" si="2"/>
         <v>6.0799737842472368</v>
       </c>
@@ -4006,20 +5581,17 @@
         <f t="shared" si="3"/>
         <v>1.0700000000000003</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="O23" s="16">
+      <c r="O23" s="13">
         <v>9</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="13">
         <f t="shared" si="1"/>
         <v>17.591955223249048</v>
       </c>
-      <c r="Q23" s="16">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
         <f t="shared" si="2"/>
         <v>9.2040223883754759</v>
       </c>
@@ -4035,20 +5607,17 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000003</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="O24" s="16">
+      <c r="O24" s="13">
         <v>6</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="13">
         <f t="shared" si="1"/>
         <v>11.622044773215034</v>
       </c>
-      <c r="Q24" s="16">
-        <v>0</v>
-      </c>
-      <c r="R24" s="16">
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13">
         <f t="shared" si="2"/>
         <v>6.188977613392483</v>
       </c>
@@ -4064,17 +5633,17 @@
         <f t="shared" si="3"/>
         <v>1.1300000000000003</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="13">
         <v>9</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="13">
         <f t="shared" si="1"/>
         <v>17.282696699677022</v>
       </c>
-      <c r="Q25" s="16">
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
         <f t="shared" si="2"/>
         <v>9.3586516501614891</v>
       </c>
@@ -4090,18 +5659,17 @@
         <f t="shared" si="3"/>
         <v>1.1600000000000004</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="16">
+      <c r="O26" s="13">
         <v>6</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="13">
         <f t="shared" si="1"/>
         <v>11.426797505617047</v>
       </c>
-      <c r="Q26" s="16">
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
         <f t="shared" si="2"/>
         <v>6.2866012471914763</v>
       </c>
@@ -4117,18 +5685,17 @@
         <f t="shared" si="3"/>
         <v>1.1900000000000004</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="16">
+      <c r="O27" s="13">
         <v>9</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="13">
         <f t="shared" si="1"/>
         <v>17.004980349687262</v>
       </c>
-      <c r="Q27" s="16">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
         <f t="shared" si="2"/>
         <v>9.497509825156369</v>
       </c>
@@ -4140,21 +5707,21 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <f t="shared" ref="E28:E41" si="4">E27+B$4</f>
         <v>1.2400000000000004</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="13">
         <v>6</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="13">
         <f t="shared" si="1"/>
         <v>11.196260017716181</v>
       </c>
-      <c r="Q28" s="16">
-        <v>0</v>
-      </c>
-      <c r="R28" s="16">
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
         <f t="shared" si="2"/>
         <v>6.4018699911419095</v>
       </c>
@@ -4166,21 +5733,21 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <f t="shared" si="4"/>
         <v>1.2900000000000005</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="13">
         <v>9</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="13">
         <f t="shared" si="1"/>
         <v>16.60041673777754</v>
       </c>
-      <c r="Q29" s="16">
-        <v>0</v>
-      </c>
-      <c r="R29" s="16">
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
         <f t="shared" si="2"/>
         <v>9.6997916311112302</v>
       </c>
@@ -4192,21 +5759,21 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="5">
         <f t="shared" si="4"/>
         <v>1.3400000000000005</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="13">
         <v>6</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="13">
         <f t="shared" si="1"/>
         <v>10.947472620615905</v>
       </c>
-      <c r="Q30" s="16">
-        <v>0</v>
-      </c>
-      <c r="R30" s="16">
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
         <f t="shared" si="2"/>
         <v>6.5262636896920476</v>
       </c>
@@ -4218,21 +5785,21 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <f t="shared" si="4"/>
         <v>1.3900000000000006</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="13">
         <v>9</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="13">
         <f t="shared" si="1"/>
         <v>16.255174713761683</v>
       </c>
-      <c r="Q31" s="16">
-        <v>0</v>
-      </c>
-      <c r="R31" s="16">
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
         <f t="shared" si="2"/>
         <v>9.8724126431191586</v>
       </c>
@@ -4244,21 +5811,21 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <f t="shared" si="4"/>
         <v>1.4400000000000006</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="13">
         <v>6</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="13">
         <f t="shared" si="1"/>
         <v>10.733959212169276</v>
       </c>
-      <c r="Q32" s="16">
-        <v>0</v>
-      </c>
-      <c r="R32" s="16">
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
         <f t="shared" si="2"/>
         <v>6.6330203939153618</v>
       </c>
@@ -4270,21 +5837,21 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <f t="shared" si="4"/>
         <v>1.4900000000000007</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="13">
         <v>9</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="13">
         <f t="shared" si="1"/>
         <v>15.95730766148785</v>
       </c>
-      <c r="Q33" s="16">
-        <v>0</v>
-      </c>
-      <c r="R33" s="16">
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
         <f t="shared" si="2"/>
         <v>10.021346169256075</v>
       </c>
@@ -4296,21 +5863,21 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="5">
         <f t="shared" si="4"/>
         <v>1.5400000000000007</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="13">
         <v>6</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="13">
         <f t="shared" si="1"/>
         <v>10.54882721560092</v>
       </c>
-      <c r="Q34" s="16">
-        <v>0</v>
-      </c>
-      <c r="R34" s="16">
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
         <f t="shared" si="2"/>
         <v>6.7255863921995402</v>
       </c>
@@ -4322,21 +5889,21 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <f t="shared" si="4"/>
         <v>1.5900000000000007</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="13">
         <v>9</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="13">
         <f t="shared" si="1"/>
         <v>15.697827637009443</v>
       </c>
-      <c r="Q35" s="16">
-        <v>0</v>
-      </c>
-      <c r="R35" s="16">
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13">
         <f t="shared" si="2"/>
         <v>10.151086181495279</v>
       </c>
@@ -4348,21 +5915,21 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="5">
         <f t="shared" si="4"/>
         <v>1.6400000000000008</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="13">
         <v>6</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="13">
         <f t="shared" si="1"/>
         <v>10.386845249208308</v>
       </c>
-      <c r="Q36" s="16">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16">
+      <c r="Q36" s="13">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
         <f t="shared" si="2"/>
         <v>6.8065773753958458</v>
       </c>
@@ -4374,21 +5941,21 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <f t="shared" si="4"/>
         <v>1.6900000000000008</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="13">
         <v>9</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="13">
         <f t="shared" si="1"/>
         <v>15.46985572700121</v>
       </c>
-      <c r="Q37" s="16">
-        <v>0</v>
-      </c>
-      <c r="R37" s="16">
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
         <f t="shared" si="2"/>
         <v>10.265072136499395</v>
       </c>
@@ -4400,21 +5967,21 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="5">
         <f t="shared" si="4"/>
         <v>1.7400000000000009</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="13">
         <v>6</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="13">
         <f t="shared" si="1"/>
         <v>10.243977642848646</v>
       </c>
-      <c r="Q38" s="16">
-        <v>0</v>
-      </c>
-      <c r="R38" s="16">
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
         <f t="shared" si="2"/>
         <v>6.8780111785756768</v>
       </c>
@@ -4426,21 +5993,21 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <f t="shared" si="4"/>
         <v>1.7900000000000009</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="13">
         <v>9</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="13">
         <f t="shared" si="1"/>
         <v>15.26804525281954</v>
       </c>
-      <c r="Q39" s="16">
-        <v>0</v>
-      </c>
-      <c r="R39" s="16">
+      <c r="Q39" s="13">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
         <f t="shared" si="2"/>
         <v>10.36597737359023</v>
       </c>
@@ -4452,21 +6019,21 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="5">
         <f t="shared" si="4"/>
         <v>1.840000000000001</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="13">
         <v>6</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="13">
         <f t="shared" si="1"/>
         <v>10.11706517370337</v>
       </c>
-      <c r="Q40" s="16">
-        <v>0</v>
-      </c>
-      <c r="R40" s="16">
+      <c r="Q40" s="13">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
         <f t="shared" si="2"/>
         <v>6.9414674131483149</v>
       </c>
@@ -4478,21 +6045,21 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <f t="shared" si="4"/>
         <v>1.890000000000001</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="13">
         <v>9</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="13">
         <f t="shared" si="1"/>
         <v>15.088182216844416</v>
       </c>
-      <c r="Q41" s="16">
-        <v>0</v>
-      </c>
-      <c r="R41" s="16">
+      <c r="Q41" s="13">
+        <v>0</v>
+      </c>
+      <c r="R41" s="13">
         <f t="shared" si="2"/>
         <v>10.455908891577792</v>
       </c>
@@ -4501,17 +6068,17 @@
       </c>
     </row>
     <row r="42" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E42" s="8"/>
+      <c r="E42" s="5"/>
       <c r="O42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="13">
         <v>10.345781199999999</v>
       </c>
-      <c r="Q42" s="16">
-        <v>0</v>
-      </c>
-      <c r="R42" s="16">
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
         <v>0</v>
       </c>
       <c r="S42">
@@ -4519,15 +6086,15 @@
       </c>
     </row>
     <row r="43" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E43" s="8"/>
+      <c r="E43" s="5"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="16">
+      <c r="P43" s="13">
         <v>14.25649812</v>
       </c>
-      <c r="Q43" s="16">
-        <v>0</v>
-      </c>
-      <c r="R43" s="16">
+      <c r="Q43" s="13">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
         <v>0</v>
       </c>
       <c r="S43">
@@ -4535,15 +6102,15 @@
       </c>
     </row>
     <row r="44" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E44" s="8"/>
+      <c r="E44" s="5"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="16">
+      <c r="P44" s="13">
         <v>19.856767532095027</v>
       </c>
-      <c r="Q44" s="16">
-        <v>0</v>
-      </c>
-      <c r="R44" s="16">
+      <c r="Q44" s="13">
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
         <v>0</v>
       </c>
       <c r="S44">
@@ -4551,15 +6118,15 @@
       </c>
     </row>
     <row r="45" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E45" s="8"/>
+      <c r="E45" s="5"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="16">
+      <c r="P45" s="13">
         <v>16.1123689201</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="13">
         <v>6.9873278110000001</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45" s="13">
         <v>6.9873278110000001</v>
       </c>
       <c r="S45">
@@ -4567,15 +6134,15 @@
       </c>
     </row>
     <row r="46" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E46" s="8"/>
+      <c r="E46" s="5"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="16">
+      <c r="P46" s="13">
         <v>13.098871129999999</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="13">
         <v>7.7344182362471514</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="13">
         <v>4.6785342910000001</v>
       </c>
       <c r="S46">
@@ -4583,17 +6150,17 @@
       </c>
     </row>
     <row r="47" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E47" s="8"/>
-      <c r="O47" s="18" t="s">
+      <c r="E47" s="5"/>
+      <c r="O47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="16">
-        <v>0</v>
-      </c>
-      <c r="R47" s="16">
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
         <v>7.553214981</v>
       </c>
       <c r="S47">
@@ -4601,15 +6168,15 @@
       </c>
     </row>
     <row r="48" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E48" s="8"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>0</v>
-      </c>
-      <c r="R48" s="16">
+      <c r="E48" s="5"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
         <v>10.249976853</v>
       </c>
       <c r="S48">
@@ -4617,18 +6184,18 @@
       </c>
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E49" s="8"/>
-      <c r="L49" s="17" t="s">
+      <c r="E49" s="5"/>
+      <c r="L49" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="O49" s="18"/>
-      <c r="P49" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>0</v>
-      </c>
-      <c r="R49" s="16">
+      <c r="O49" s="15"/>
+      <c r="P49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>0</v>
+      </c>
+      <c r="R49" s="13">
         <v>3.134446499564898</v>
       </c>
       <c r="S49">
@@ -4636,21 +6203,21 @@
       </c>
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E50" s="8"/>
+      <c r="E50" s="5"/>
       <c r="L50" t="s">
         <v>69</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
-      </c>
-      <c r="O50" s="18"/>
-      <c r="P50" s="16">
+        <v>4</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="13">
         <v>10.677501899999999</v>
       </c>
-      <c r="Q50" s="16">
-        <v>0</v>
-      </c>
-      <c r="R50" s="16">
+      <c r="Q50" s="13">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
         <v>10.677501899999999</v>
       </c>
       <c r="S50">
@@ -4658,21 +6225,21 @@
       </c>
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E51" s="8"/>
+      <c r="E51" s="5"/>
       <c r="L51" t="s">
         <v>70</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
-      <c r="O51" s="18"/>
-      <c r="P51" s="16">
+      <c r="O51" s="15"/>
+      <c r="P51" s="13">
         <v>6.7855211077000002</v>
       </c>
-      <c r="Q51" s="16">
-        <v>0</v>
-      </c>
-      <c r="R51" s="16">
+      <c r="Q51" s="13">
+        <v>0</v>
+      </c>
+      <c r="R51" s="13">
         <v>9.915670124</v>
       </c>
       <c r="S51">
@@ -4680,50 +6247,42 @@
       </c>
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E52" s="8"/>
+      <c r="E52" s="5"/>
       <c r="L52" t="s">
         <v>71</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
       <c r="L53" t="s">
         <v>72</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="R53" s="4"/>
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="L54" s="3" t="s">
+      <c r="L54" t="s">
         <v>73</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="14">
         <f>SUM(M50:M53)</f>
-        <v>7.5</v>
-      </c>
-      <c r="O54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P54" s="5">
+      <c r="P54" s="3">
         <f>MAX(P2:P51)</f>
         <v>28.212671351908156</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q54" s="3">
         <f>MAX(Q2:Q51)</f>
         <v>7.7344182362471514</v>
       </c>
-      <c r="R54" s="5">
+      <c r="R54" s="3">
         <f>MAX(R2:R51)</f>
         <v>10.677501899999999</v>
       </c>
@@ -4735,39 +6294,39 @@
       <c r="M55">
         <v>50</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P55" s="5">
+      <c r="P55" s="3">
         <f>MIN(P2:P51)</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q55" s="3">
         <f>MIN(Q2:Q51)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="5">
+      <c r="R55" s="3">
         <f>MIN(R2:R51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="L56" s="17" t="s">
+      <c r="L56" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M56">
         <f>M55*M54/60</f>
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N56" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="L58" s="17" t="s">
+      <c r="L58" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N58" s="17" t="s">
+      <c r="N58" s="14" t="s">
         <v>68</v>
       </c>
       <c r="P58" t="s">
@@ -4815,12 +6374,12 @@
       </c>
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="14" t="s">
         <v>87</v>
       </c>
       <c r="M62">
         <f>M61*M56/60</f>
-        <v>12.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="N62" t="s">
         <v>81</v>
@@ -4844,12 +6403,12 @@
       </c>
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="L64" s="17" t="s">
+      <c r="L64" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="14" t="s">
         <v>82</v>
       </c>
       <c r="M65">
@@ -4869,7 +6428,7 @@
       </c>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L66" s="17" t="s">
+      <c r="L66" s="14" t="s">
         <v>83</v>
       </c>
       <c r="M66">
@@ -4884,7 +6443,7 @@
       </c>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L67" s="17" t="s">
+      <c r="L67" s="14" t="s">
         <v>84</v>
       </c>
       <c r="M67">
@@ -4901,7 +6460,7 @@
       <c r="Q68">
         <v>6</v>
       </c>
-      <c r="R68" s="18" t="s">
+      <c r="R68" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4916,7 +6475,7 @@
       </c>
       <c r="M70">
         <f>M62+M56+SUM(M65:M67)</f>
-        <v>52.416666666666671</v>
+        <v>53.666666666666671</v>
       </c>
       <c r="N70" t="s">
         <v>76</v>
@@ -4929,7 +6488,7 @@
       <c r="Q71">
         <v>5</v>
       </c>
-      <c r="R71" s="18" t="s">
+      <c r="R71" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4939,32 +6498,31 @@
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D116" s="11">
+      <c r="D116" s="8">
         <v>0.5</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="7">
         <v>0.9</v>
       </c>
-      <c r="J116" s="9">
+      <c r="J116" s="6">
         <v>1.3</v>
       </c>
-      <c r="M116" s="15">
+      <c r="M116" s="12">
         <v>0.3</v>
       </c>
-      <c r="N116" s="4"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="5">RAND()</f>
-        <v>0.56603751116800616</v>
+        <v>0.1747076225394697</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -4993,7 +6551,7 @@
         <f t="shared" ref="K117:K145" si="11">IF(J117&lt;=$E$114,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="M117" s="4">
+      <c r="M117">
         <f t="shared" ref="M117:M145" si="12">ABS($C117-M$116)</f>
         <v>1.2000000000000006</v>
       </c>
@@ -5009,7 +6567,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55328399024828168</v>
+        <v>0.59634870829334652</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5050,7 +6608,7 @@
         <f>K118-K117</f>
         <v>-2</v>
       </c>
-      <c r="M118" s="4">
+      <c r="M118">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5066,7 +6624,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45381505141978518</v>
+        <v>0.19697852154202278</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5107,7 +6665,7 @@
         <f t="shared" ref="L119:L145" si="17">K119-K118</f>
         <v>0</v>
       </c>
-      <c r="M119" s="4">
+      <c r="M119">
         <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
@@ -5123,7 +6681,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69327744063328545</v>
+        <v>1.8786788941487997E-2</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5164,7 +6722,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M120" s="4">
+      <c r="M120">
         <f t="shared" si="12"/>
         <v>0.9500000000000004</v>
       </c>
@@ -5180,7 +6738,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66699430523286796</v>
+        <v>0.51738264409302304</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5221,7 +6779,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M121" s="4">
+      <c r="M121">
         <f t="shared" si="12"/>
         <v>0.14999999999999997</v>
       </c>
@@ -5237,7 +6795,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24095522078560916</v>
+        <v>0.22181375219904798</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5278,7 +6836,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M122" s="4">
+      <c r="M122">
         <f t="shared" si="12"/>
         <v>4.9999999999999989E-2</v>
       </c>
@@ -5294,7 +6852,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47372513688284712</v>
+        <v>0.54197294879937308</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5335,7 +6893,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M123" s="4">
+      <c r="M123">
         <f t="shared" si="12"/>
         <v>0.19999999999999996</v>
       </c>
@@ -5351,7 +6909,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90974247759169191</v>
+        <v>0.83654431058342205</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5392,7 +6950,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M124" s="4">
+      <c r="M124">
         <f t="shared" si="12"/>
         <v>0.35000000000000003</v>
       </c>
@@ -5408,7 +6966,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1996725714133127E-2</v>
+        <v>0.9966360216506116</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5449,7 +7007,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M125" s="4">
+      <c r="M125">
         <f t="shared" si="12"/>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -5465,7 +7023,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53945036752321307</v>
+        <v>0.67353756307461066</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5506,7 +7064,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M126" s="4">
+      <c r="M126">
         <f t="shared" si="12"/>
         <v>0.65000000000000036</v>
       </c>
@@ -5522,7 +7080,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67962653142321316</v>
+        <v>1.6470932305396424E-2</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5563,7 +7121,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M127" s="4">
+      <c r="M127">
         <f t="shared" si="12"/>
         <v>1.1500000000000006</v>
       </c>
@@ -5579,7 +7137,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25836914681044421</v>
+        <v>0.21877185621880657</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5620,7 +7178,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M128" s="4">
+      <c r="M128">
         <f t="shared" si="12"/>
         <v>1.0500000000000005</v>
       </c>
@@ -5636,7 +7194,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86066643931423226</v>
+        <v>0.9740089746450955</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5677,7 +7235,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M129" s="4">
+      <c r="M129">
         <f t="shared" si="12"/>
         <v>1.3000000000000007</v>
       </c>
@@ -5693,7 +7251,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50807038575554497</v>
+        <v>0.87983721219961164</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5734,7 +7292,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M130" s="4">
+      <c r="M130">
         <f t="shared" si="12"/>
         <v>0.85000000000000031</v>
       </c>
@@ -5750,7 +7308,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69832150970532003</v>
+        <v>0.33196147932967734</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5791,7 +7349,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M131" s="4">
+      <c r="M131">
         <f t="shared" si="12"/>
         <v>0.55000000000000027</v>
       </c>
@@ -5807,7 +7365,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16451918191499804</v>
+        <v>4.9673425276580585E-2</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5848,7 +7406,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M132" s="4">
+      <c r="M132">
         <f t="shared" si="12"/>
         <v>1.2500000000000007</v>
       </c>
@@ -5864,7 +7422,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48015913719437953</v>
+        <v>0.40937550219577301</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5905,7 +7463,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M133" s="4">
+      <c r="M133">
         <f t="shared" si="12"/>
         <v>1.4000000000000008</v>
       </c>
@@ -5921,7 +7479,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89513039379570991</v>
+        <v>0.81940027423288986</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -5962,7 +7520,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M134" s="4">
+      <c r="M134">
         <f t="shared" si="12"/>
         <v>0.75000000000000022</v>
       </c>
@@ -5978,7 +7536,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="5"/>
-        <v>7.568078544835799E-2</v>
+        <v>0.97455455660254231</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6019,7 +7577,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M135" s="4">
+      <c r="M135">
         <f t="shared" si="12"/>
         <v>0.90000000000000036</v>
       </c>
@@ -6035,7 +7593,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43098443314671886</v>
+        <v>4.8645148641468294E-2</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6076,7 +7634,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M136" s="4">
+      <c r="M136">
         <f t="shared" si="12"/>
         <v>0.60000000000000031</v>
       </c>
@@ -6092,7 +7650,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38361712827910976</v>
+        <v>0.84733744614879536</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6133,7 +7691,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M137" s="4">
+      <c r="M137">
         <f t="shared" si="12"/>
         <v>1.1000000000000005</v>
       </c>
@@ -6149,7 +7707,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41212635290362609</v>
+        <v>0.5534047362060589</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6190,7 +7748,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M138" s="4">
+      <c r="M138">
         <f t="shared" si="12"/>
         <v>0.40000000000000008</v>
       </c>
@@ -6206,7 +7764,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64161250048760032</v>
+        <v>5.9772385220757118E-2</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6247,7 +7805,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M139" s="4">
+      <c r="M139">
         <f t="shared" si="12"/>
         <v>0.80000000000000027</v>
       </c>
@@ -6263,7 +7821,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48809907032734745</v>
+        <v>0.37226994631849397</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6304,7 +7862,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M140" s="4">
+      <c r="M140">
         <f t="shared" si="12"/>
         <v>0.24999999999999994</v>
       </c>
@@ -6320,7 +7878,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26269262661374315</v>
+        <v>0.22401757072939465</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6361,7 +7919,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="M141" s="4">
+      <c r="M141">
         <f t="shared" si="12"/>
         <v>1.0000000000000004</v>
       </c>
@@ -6377,7 +7935,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28389593616248776</v>
+        <v>0.20642489793650054</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6418,7 +7976,7 @@
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="M142" s="4">
+      <c r="M142">
         <f t="shared" si="12"/>
         <v>0.70000000000000018</v>
       </c>
@@ -6434,7 +7992,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14925560948403915</v>
+        <v>0.39532081100176275</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6475,7 +8033,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M143" s="4">
+      <c r="M143">
         <f t="shared" si="12"/>
         <v>0.45000000000000012</v>
       </c>
@@ -6491,7 +8049,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96871813682770946</v>
+        <v>0.17685925293521609</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6532,7 +8090,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M144" s="4">
+      <c r="M144">
         <f t="shared" si="12"/>
         <v>1.3500000000000008</v>
       </c>
@@ -6548,7 +8106,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4389894193820378E-3</v>
+        <v>0.17350979675946321</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>
@@ -6589,7 +8147,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M145" s="4">
+      <c r="M145">
         <f t="shared" si="12"/>
         <v>0.50000000000000022</v>
       </c>
@@ -6603,60 +8161,60 @@
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J146" s="6"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="6"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D147" t="s">
         <v>47</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="10">
         <f>COUNTIF(F117:F145,"2")</f>
         <v>5</v>
       </c>
-      <c r="H147" s="13">
+      <c r="H147" s="10">
         <f>COUNTIF(I117:I145,"2")</f>
         <v>8</v>
       </c>
-      <c r="K147" s="13">
+      <c r="K147" s="10">
         <f>COUNTIF(L117:L145,"2")</f>
         <v>7</v>
       </c>
-      <c r="N147" s="13">
+      <c r="N147" s="10">
         <f>COUNTIF(O117:O145,"2")</f>
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D148" t="s">
         <v>48</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148" s="11">
         <f>COUNTIF(F118:F145,-2)</f>
         <v>5</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H148" s="11">
         <f>COUNTIF(I118:I145,-2)</f>
         <v>7</v>
       </c>
-      <c r="K148" s="14">
+      <c r="K148" s="11">
         <f>COUNTIF(L118:L145,-2)</f>
         <v>8</v>
       </c>
-      <c r="N148" s="14">
+      <c r="N148" s="11">
         <f>COUNTIF(O117:O145,"-2")</f>
         <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D149" t="s">
@@ -6680,7 +8238,7 @@
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6780,14 +8338,12 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -6801,14 +8357,13 @@
         <f>((4*A2)*(0.5^(1/E2)))/(1 + 2*(0.5^(1/E2)))</f>
         <v>4.5669833909773114</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1.7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>0.01</v>
       </c>
     </row>
@@ -7164,6 +8719,419 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3804985C-982B-8D4A-AC13-43366B89D4FF}">
+  <dimension ref="B1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B3^G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" si="0">B4^G$2</f>
+        <v>0.57434917749851755</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.3831618672225916</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.7411011265922482</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.0813830185046829</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.4082246852806923</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.7242968954290983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.031433133020796</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.3309645523843812</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3.6238983183884779</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>5.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.9110210334824664</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.192962712629476</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>6.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4.4702384044015488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4.7432763938033666</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>7.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.0124379646870167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.2780316430915768</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>8.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.5403237118667024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5.7995461347952899</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>9.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.0559026369569615</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6.3095734448019343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>10.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6.5607190336059054</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6.8094831275223022</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>11.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>7.0559951284748843</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>7.3003721027184696</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>12.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>7.5427204206814542</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7.7831371220394709</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>13.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>8.0217110608470144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8.2585238729894588</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>14.5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8.4936507988786083</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8.7271613872903213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>15.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8.9591201009009698</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>9.189586839976279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>16.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>9.4186173974844802</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>9.6462638564168639</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>17.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>9.8725749381364594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>10.097596309015795</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>18.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>10.321370851376619</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>10.543938903738731</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>19.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>10.765338474569583</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>10.985605433061178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10335,7 +12303,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E4D68-2439-1243-BDE9-788EAE4B0CAE}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
@@ -10343,7 +12311,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -10353,17 +12321,14 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10375,19 +12340,17 @@
         <f>((4*A2)*(0.5^(1/E2)))/(1 + 2*(0.5^(1/E2)))</f>
         <v>4.460053327804463</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>0.01</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10399,16 +12362,12 @@
         <f t="shared" ref="C3:C22" si="1">((4*A3)*(0.5^(1/E3)))/(1 + 2*(0.5^(1/E3)))</f>
         <v>4.4660918028708787</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <f>E2+H2</f>
         <v>1.51</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10425,7 +12384,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10442,7 +12401,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10459,7 +12418,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10476,7 +12435,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10493,7 +12452,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10510,7 +12469,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10527,7 +12486,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10544,7 +12503,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10561,7 +12520,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10578,7 +12537,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10595,7 +12554,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10612,7 +12571,7 @@
         <v>1.6300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
